--- a/data/trans_bre/MCS12_SP_R3-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.066550386029901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.513316068065293</v>
+        <v>4.513316068065287</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4605418866228259</v>
@@ -649,7 +649,7 @@
         <v>0.4967105159865028</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2198176470645254</v>
+        <v>0.2198176470645251</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.350898236296733</v>
+        <v>2.44466481374645</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.558835908928213</v>
+        <v>9.461805291663417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.790438056322099</v>
+        <v>4.735952629692646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7266782226872776</v>
+        <v>0.2691086127108584</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1431165866419795</v>
+        <v>0.1541660533274678</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4327894638898239</v>
+        <v>0.4235955881154757</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2197553420378699</v>
+        <v>0.2414221073151162</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.02278656972268869</v>
+        <v>0.01345325397574835</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.55399875240312</v>
+        <v>10.33128412082439</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.04387221004843</v>
+        <v>19.01611455693953</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.80796040886539</v>
+        <v>13.9233693645277</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.548021837164747</v>
+        <v>8.188300354801578</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8587367769859621</v>
+        <v>0.8302752710298427</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.061758773621923</v>
+        <v>1.047994757342568</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8522472125001557</v>
+        <v>0.8880631814635633</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4712772162041439</v>
+        <v>0.4566969022949653</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.5236511555928922</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.603063077272002</v>
+        <v>0.6030630772720024</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.153370744168236</v>
+        <v>6.271098811718859</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.467303743379428</v>
+        <v>4.703315413444946</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.778755248917939</v>
+        <v>4.620964859954378</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.083671567610021</v>
+        <v>7.48539839280174</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2931992093698402</v>
+        <v>0.2954376898195092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1756745308323913</v>
+        <v>0.194863504660661</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2624571410332681</v>
+        <v>0.2508356709292973</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.358424515942329</v>
+        <v>0.3950733670566401</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.09750995223346</v>
+        <v>14.35984717553702</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.81006385982128</v>
+        <v>13.16594739957394</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.11390932309297</v>
+        <v>11.93564676950304</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.10066406788998</v>
+        <v>14.31595320579581</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8198046849562174</v>
+        <v>0.8251860983311954</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6201632886845867</v>
+        <v>0.6373670120716309</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8025579870435622</v>
+        <v>0.8188944984757081</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9192103601069906</v>
+        <v>0.9444622907585167</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.966892010237347</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.304747476501121</v>
+        <v>6.304747476501124</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4916192775792519</v>
@@ -849,7 +849,7 @@
         <v>0.4280702481942416</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3015166856264852</v>
+        <v>0.3015166856264854</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.5827492835131</v>
+        <v>4.235327470475672</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.107994068048954</v>
+        <v>6.00723112099376</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.723597614765266</v>
+        <v>3.321958312041708</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.907382694465557</v>
+        <v>1.335492451669396</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1779519112712578</v>
+        <v>0.2003901507187771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2636838909868576</v>
+        <v>0.2613613508188234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1717663637912472</v>
+        <v>0.1706902561180006</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.06913864640317544</v>
+        <v>0.05107978335908409</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.78282098571454</v>
+        <v>12.99025008491011</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.50701603825712</v>
+        <v>15.42315301650635</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.16755201692419</v>
+        <v>12.1207029293492</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.69007363472291</v>
+        <v>10.62232205382251</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8201353681769457</v>
+        <v>0.8723821118889933</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8584453235754415</v>
+        <v>0.8462429989639398</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7509427332777651</v>
+        <v>0.7401799613500909</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5667366192675501</v>
+        <v>0.5680036610239789</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.210960960367606</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9.36728580611689</v>
+        <v>9.367285806116884</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2722896062197594</v>
@@ -949,7 +949,7 @@
         <v>0.2785836758496056</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4606685327067909</v>
+        <v>0.4606685327067905</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.794399040688471</v>
+        <v>2.161532311151193</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.052721745769173</v>
+        <v>4.668291473915322</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.294998301403862</v>
+        <v>1.984869596952026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.764220926918899</v>
+        <v>5.553868615699617</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07306835474757147</v>
+        <v>0.08492943845006007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1889161618034474</v>
+        <v>0.1716591697863772</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0912257788844518</v>
+        <v>0.07835881660462828</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2524009618332898</v>
+        <v>0.2446699794165477</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.864648132316491</v>
+        <v>9.569321310914669</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.35452258667352</v>
+        <v>13.13806805480919</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.30596232767525</v>
+        <v>10.2906499131575</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.79786896185486</v>
+        <v>13.04752882602486</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4902390826374367</v>
+        <v>0.4796090567236685</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5765463185171971</v>
+        <v>0.5780184113194058</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5017025225404563</v>
+        <v>0.5030255678126829</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6933230262236848</v>
+        <v>0.7135808535528928</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.912548894577679</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.111340538362018</v>
+        <v>8.111340538362017</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4247794081696776</v>
@@ -1049,7 +1049,7 @@
         <v>0.4195092813502437</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4126156965623948</v>
+        <v>0.4126156965623946</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.050017222940678</v>
+        <v>5.724462077078582</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.384628641114118</v>
+        <v>8.268148374944792</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.689328416125558</v>
+        <v>5.8114887715644</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.177423812842616</v>
+        <v>6.10525232304289</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3076922461266403</v>
+        <v>0.2957828573757993</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3590280488103464</v>
+        <v>0.3586824462692156</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2840650311185055</v>
+        <v>0.2933181176964981</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2967137624895722</v>
+        <v>0.2942518601644283</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.992588226256119</v>
+        <v>9.916639773541922</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.78927471477439</v>
+        <v>12.55324189040538</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.795778703046087</v>
+        <v>9.996641981189109</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.05029369490251</v>
+        <v>10.03296606875853</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5685594910138259</v>
+        <v>0.5708221697932828</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5975998306837175</v>
+        <v>0.5914786756200353</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5552152658278421</v>
+        <v>0.5548894353969893</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5394217818318021</v>
+        <v>0.5393168320784444</v>
       </c>
     </row>
     <row r="19">
